--- a/Excel/镇魂街/地狱道/hell.xlsx
+++ b/Excel/镇魂街/地狱道/hell.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\DataConfig\地狱道\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\镇魂街\地狱道\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65EC38-08F4-49BB-831E-9F1B23095CC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hell" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -160,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,9 +356,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,11 +600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,10 +787,10 @@
         <v>25</v>
       </c>
       <c r="G8" s="4">
-        <v>1005</v>
+        <v>20101</v>
       </c>
       <c r="H8" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -783,7 +811,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="4">
-        <v>1005</v>
+        <v>20102</v>
       </c>
       <c r="H9" s="4">
         <v>30</v>
@@ -807,7 +835,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="4">
-        <v>1005</v>
+        <v>20103</v>
       </c>
       <c r="H10" s="4">
         <v>40</v>
@@ -831,7 +859,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="4">
-        <v>1005</v>
+        <v>20104</v>
       </c>
       <c r="H11" s="4">
         <v>50</v>
@@ -855,7 +883,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="4">
-        <v>1005</v>
+        <v>20105</v>
       </c>
       <c r="H12" s="4">
         <v>60</v>
@@ -879,7 +907,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="4">
-        <v>1005</v>
+        <v>20106</v>
       </c>
       <c r="H13" s="4">
         <v>70</v>
@@ -903,7 +931,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="4">
-        <v>1005</v>
+        <v>20107</v>
       </c>
       <c r="H14" s="4">
         <v>80</v>
@@ -927,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="4">
-        <v>1005</v>
+        <v>20108</v>
       </c>
       <c r="H15" s="4">
         <v>90</v>
@@ -952,10 +980,10 @@
         <v>25</v>
       </c>
       <c r="G16" s="4">
-        <v>1005</v>
+        <v>20201</v>
       </c>
       <c r="H16" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -977,7 +1005,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="4">
-        <v>1005</v>
+        <v>20202</v>
       </c>
       <c r="H17" s="4">
         <v>30</v>
@@ -1002,7 +1030,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="4">
-        <v>1005</v>
+        <v>20203</v>
       </c>
       <c r="H18" s="4">
         <v>40</v>
@@ -1027,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="4">
-        <v>1005</v>
+        <v>20204</v>
       </c>
       <c r="H19" s="4">
         <v>50</v>
@@ -1052,7 +1080,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="4">
-        <v>1005</v>
+        <v>20205</v>
       </c>
       <c r="H20" s="4">
         <v>60</v>
@@ -1077,7 +1105,7 @@
         <v>37</v>
       </c>
       <c r="G21" s="4">
-        <v>1005</v>
+        <v>20206</v>
       </c>
       <c r="H21" s="4">
         <v>70</v>
@@ -1102,7 +1130,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="4">
-        <v>1005</v>
+        <v>20207</v>
       </c>
       <c r="H22" s="4">
         <v>80</v>
@@ -1127,7 +1155,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="4">
-        <v>1005</v>
+        <v>20208</v>
       </c>
       <c r="H23" s="4">
         <v>90</v>
@@ -1152,10 +1180,10 @@
         <v>25</v>
       </c>
       <c r="G24" s="4">
-        <v>1005</v>
+        <v>20301</v>
       </c>
       <c r="H24" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1177,7 +1205,7 @@
         <v>33</v>
       </c>
       <c r="G25" s="4">
-        <v>1005</v>
+        <v>20302</v>
       </c>
       <c r="H25" s="4">
         <v>30</v>
@@ -1202,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="4">
-        <v>1005</v>
+        <v>20303</v>
       </c>
       <c r="H26" s="4">
         <v>40</v>
@@ -1227,7 +1255,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="4">
-        <v>1005</v>
+        <v>20304</v>
       </c>
       <c r="H27" s="4">
         <v>50</v>
@@ -1252,7 +1280,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="4">
-        <v>1005</v>
+        <v>20305</v>
       </c>
       <c r="H28" s="4">
         <v>60</v>
@@ -1277,7 +1305,7 @@
         <v>37</v>
       </c>
       <c r="G29" s="4">
-        <v>1005</v>
+        <v>20306</v>
       </c>
       <c r="H29" s="4">
         <v>70</v>
@@ -1302,7 +1330,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="4">
-        <v>1005</v>
+        <v>20307</v>
       </c>
       <c r="H30" s="4">
         <v>80</v>
@@ -1327,7 +1355,7 @@
         <v>39</v>
       </c>
       <c r="G31" s="4">
-        <v>1005</v>
+        <v>20308</v>
       </c>
       <c r="H31" s="4">
         <v>90</v>
@@ -1352,10 +1380,10 @@
         <v>25</v>
       </c>
       <c r="G32" s="4">
-        <v>1005</v>
+        <v>20401</v>
       </c>
       <c r="H32" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1377,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="G33" s="4">
-        <v>1005</v>
+        <v>20402</v>
       </c>
       <c r="H33" s="4">
         <v>30</v>
@@ -1402,7 +1430,7 @@
         <v>34</v>
       </c>
       <c r="G34" s="4">
-        <v>1005</v>
+        <v>20403</v>
       </c>
       <c r="H34" s="4">
         <v>40</v>
@@ -1427,7 +1455,7 @@
         <v>35</v>
       </c>
       <c r="G35" s="4">
-        <v>1005</v>
+        <v>20404</v>
       </c>
       <c r="H35" s="4">
         <v>50</v>
@@ -1452,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="G36" s="4">
-        <v>1005</v>
+        <v>20405</v>
       </c>
       <c r="H36" s="4">
         <v>60</v>
@@ -1477,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="G37" s="4">
-        <v>1005</v>
+        <v>20406</v>
       </c>
       <c r="H37" s="4">
         <v>70</v>
@@ -1502,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="G38" s="4">
-        <v>1005</v>
+        <v>20407</v>
       </c>
       <c r="H38" s="4">
         <v>80</v>
@@ -1527,7 +1555,7 @@
         <v>39</v>
       </c>
       <c r="G39" s="4">
-        <v>1005</v>
+        <v>20408</v>
       </c>
       <c r="H39" s="4">
         <v>90</v>
@@ -1552,10 +1580,10 @@
         <v>25</v>
       </c>
       <c r="G40" s="4">
-        <v>1005</v>
+        <v>20501</v>
       </c>
       <c r="H40" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
@@ -1577,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="G41" s="4">
-        <v>1005</v>
+        <v>20502</v>
       </c>
       <c r="H41" s="4">
         <v>30</v>
@@ -1602,7 +1630,7 @@
         <v>34</v>
       </c>
       <c r="G42" s="4">
-        <v>1005</v>
+        <v>20503</v>
       </c>
       <c r="H42" s="4">
         <v>40</v>
@@ -1627,7 +1655,7 @@
         <v>35</v>
       </c>
       <c r="G43" s="4">
-        <v>1005</v>
+        <v>20504</v>
       </c>
       <c r="H43" s="4">
         <v>50</v>
@@ -1652,7 +1680,7 @@
         <v>36</v>
       </c>
       <c r="G44" s="4">
-        <v>1005</v>
+        <v>20505</v>
       </c>
       <c r="H44" s="4">
         <v>60</v>
@@ -1677,7 +1705,7 @@
         <v>37</v>
       </c>
       <c r="G45" s="4">
-        <v>1005</v>
+        <v>20506</v>
       </c>
       <c r="H45" s="4">
         <v>70</v>
@@ -1702,7 +1730,7 @@
         <v>38</v>
       </c>
       <c r="G46" s="4">
-        <v>1005</v>
+        <v>20507</v>
       </c>
       <c r="H46" s="4">
         <v>80</v>
@@ -1727,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="G47" s="4">
-        <v>1005</v>
+        <v>20508</v>
       </c>
       <c r="H47" s="4">
         <v>90</v>
@@ -1752,10 +1780,10 @@
         <v>25</v>
       </c>
       <c r="G48" s="4">
-        <v>1005</v>
+        <v>20601</v>
       </c>
       <c r="H48" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
@@ -1777,7 +1805,7 @@
         <v>33</v>
       </c>
       <c r="G49" s="4">
-        <v>1005</v>
+        <v>20602</v>
       </c>
       <c r="H49" s="4">
         <v>30</v>
@@ -1802,7 +1830,7 @@
         <v>34</v>
       </c>
       <c r="G50" s="4">
-        <v>1005</v>
+        <v>20603</v>
       </c>
       <c r="H50" s="4">
         <v>40</v>
@@ -1827,7 +1855,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="4">
-        <v>1005</v>
+        <v>20604</v>
       </c>
       <c r="H51" s="4">
         <v>50</v>
@@ -1852,7 +1880,7 @@
         <v>36</v>
       </c>
       <c r="G52" s="4">
-        <v>1005</v>
+        <v>20605</v>
       </c>
       <c r="H52" s="4">
         <v>60</v>
@@ -1877,7 +1905,7 @@
         <v>37</v>
       </c>
       <c r="G53" s="4">
-        <v>1005</v>
+        <v>20606</v>
       </c>
       <c r="H53" s="4">
         <v>70</v>
@@ -1902,7 +1930,7 @@
         <v>38</v>
       </c>
       <c r="G54" s="4">
-        <v>1005</v>
+        <v>20607</v>
       </c>
       <c r="H54" s="4">
         <v>80</v>
@@ -1927,7 +1955,7 @@
         <v>39</v>
       </c>
       <c r="G55" s="4">
-        <v>1005</v>
+        <v>20608</v>
       </c>
       <c r="H55" s="4">
         <v>90</v>
@@ -1952,10 +1980,10 @@
         <v>25</v>
       </c>
       <c r="G56" s="4">
-        <v>1005</v>
+        <v>20701</v>
       </c>
       <c r="H56" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
@@ -1977,7 +2005,7 @@
         <v>33</v>
       </c>
       <c r="G57" s="4">
-        <v>1005</v>
+        <v>20702</v>
       </c>
       <c r="H57" s="4">
         <v>30</v>
@@ -2002,7 +2030,7 @@
         <v>34</v>
       </c>
       <c r="G58" s="4">
-        <v>1005</v>
+        <v>20703</v>
       </c>
       <c r="H58" s="4">
         <v>40</v>
@@ -2027,7 +2055,7 @@
         <v>35</v>
       </c>
       <c r="G59" s="4">
-        <v>1005</v>
+        <v>20704</v>
       </c>
       <c r="H59" s="4">
         <v>50</v>
@@ -2052,7 +2080,7 @@
         <v>36</v>
       </c>
       <c r="G60" s="4">
-        <v>1005</v>
+        <v>20705</v>
       </c>
       <c r="H60" s="4">
         <v>60</v>
@@ -2077,7 +2105,7 @@
         <v>37</v>
       </c>
       <c r="G61" s="4">
-        <v>1005</v>
+        <v>20706</v>
       </c>
       <c r="H61" s="4">
         <v>70</v>
@@ -2102,7 +2130,7 @@
         <v>38</v>
       </c>
       <c r="G62" s="4">
-        <v>1005</v>
+        <v>20707</v>
       </c>
       <c r="H62" s="4">
         <v>80</v>
@@ -2127,7 +2155,7 @@
         <v>39</v>
       </c>
       <c r="G63" s="4">
-        <v>1005</v>
+        <v>20708</v>
       </c>
       <c r="H63" s="4">
         <v>90</v>
@@ -2152,10 +2180,10 @@
         <v>25</v>
       </c>
       <c r="G64" s="4">
-        <v>1005</v>
+        <v>20801</v>
       </c>
       <c r="H64" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
@@ -2177,7 +2205,7 @@
         <v>33</v>
       </c>
       <c r="G65" s="4">
-        <v>1005</v>
+        <v>20802</v>
       </c>
       <c r="H65" s="4">
         <v>30</v>
@@ -2202,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="G66" s="4">
-        <v>1005</v>
+        <v>20803</v>
       </c>
       <c r="H66" s="4">
         <v>40</v>
@@ -2227,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="4">
-        <v>1005</v>
+        <v>20804</v>
       </c>
       <c r="H67" s="4">
         <v>50</v>
@@ -2252,7 +2280,7 @@
         <v>36</v>
       </c>
       <c r="G68" s="4">
-        <v>1005</v>
+        <v>20805</v>
       </c>
       <c r="H68" s="4">
         <v>60</v>
@@ -2277,7 +2305,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="4">
-        <v>1005</v>
+        <v>20806</v>
       </c>
       <c r="H69" s="4">
         <v>70</v>
@@ -2302,7 +2330,7 @@
         <v>38</v>
       </c>
       <c r="G70" s="4">
-        <v>1005</v>
+        <v>20807</v>
       </c>
       <c r="H70" s="4">
         <v>80</v>
@@ -2327,7 +2355,7 @@
         <v>39</v>
       </c>
       <c r="G71" s="4">
-        <v>1005</v>
+        <v>20808</v>
       </c>
       <c r="H71" s="4">
         <v>90</v>
@@ -2352,10 +2380,10 @@
         <v>25</v>
       </c>
       <c r="G72" s="4">
-        <v>1005</v>
+        <v>20901</v>
       </c>
       <c r="H72" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
@@ -2377,7 +2405,7 @@
         <v>33</v>
       </c>
       <c r="G73" s="4">
-        <v>1005</v>
+        <v>20902</v>
       </c>
       <c r="H73" s="4">
         <v>30</v>
@@ -2402,7 +2430,7 @@
         <v>34</v>
       </c>
       <c r="G74" s="4">
-        <v>1005</v>
+        <v>20903</v>
       </c>
       <c r="H74" s="4">
         <v>40</v>
@@ -2427,7 +2455,7 @@
         <v>35</v>
       </c>
       <c r="G75" s="4">
-        <v>1005</v>
+        <v>20904</v>
       </c>
       <c r="H75" s="4">
         <v>50</v>
@@ -2452,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="G76" s="4">
-        <v>1005</v>
+        <v>20905</v>
       </c>
       <c r="H76" s="4">
         <v>60</v>
@@ -2477,7 +2505,7 @@
         <v>37</v>
       </c>
       <c r="G77" s="4">
-        <v>1005</v>
+        <v>20906</v>
       </c>
       <c r="H77" s="4">
         <v>70</v>
@@ -2502,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="G78" s="4">
-        <v>1005</v>
+        <v>20907</v>
       </c>
       <c r="H78" s="4">
         <v>80</v>
@@ -2527,7 +2555,7 @@
         <v>39</v>
       </c>
       <c r="G79" s="4">
-        <v>1005</v>
+        <v>20908</v>
       </c>
       <c r="H79" s="4">
         <v>90</v>
@@ -2552,10 +2580,10 @@
         <v>25</v>
       </c>
       <c r="G80" s="4">
-        <v>1005</v>
+        <v>21001</v>
       </c>
       <c r="H80" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
@@ -2577,7 +2605,7 @@
         <v>33</v>
       </c>
       <c r="G81" s="4">
-        <v>1005</v>
+        <v>21002</v>
       </c>
       <c r="H81" s="4">
         <v>30</v>
@@ -2602,7 +2630,7 @@
         <v>34</v>
       </c>
       <c r="G82" s="4">
-        <v>1005</v>
+        <v>21003</v>
       </c>
       <c r="H82" s="4">
         <v>40</v>
@@ -2627,7 +2655,7 @@
         <v>35</v>
       </c>
       <c r="G83" s="4">
-        <v>1005</v>
+        <v>21004</v>
       </c>
       <c r="H83" s="4">
         <v>50</v>
@@ -2652,7 +2680,7 @@
         <v>36</v>
       </c>
       <c r="G84" s="4">
-        <v>1005</v>
+        <v>21005</v>
       </c>
       <c r="H84" s="4">
         <v>60</v>
@@ -2677,7 +2705,7 @@
         <v>37</v>
       </c>
       <c r="G85" s="4">
-        <v>1005</v>
+        <v>21006</v>
       </c>
       <c r="H85" s="4">
         <v>70</v>
@@ -2702,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="G86" s="4">
-        <v>1005</v>
+        <v>21007</v>
       </c>
       <c r="H86" s="4">
         <v>80</v>
@@ -2727,7 +2755,7 @@
         <v>39</v>
       </c>
       <c r="G87" s="4">
-        <v>1005</v>
+        <v>21008</v>
       </c>
       <c r="H87" s="4">
         <v>90</v>
@@ -2752,10 +2780,10 @@
         <v>25</v>
       </c>
       <c r="G88" s="4">
-        <v>1005</v>
+        <v>21101</v>
       </c>
       <c r="H88" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
@@ -2777,7 +2805,7 @@
         <v>33</v>
       </c>
       <c r="G89" s="4">
-        <v>1005</v>
+        <v>21102</v>
       </c>
       <c r="H89" s="4">
         <v>30</v>
@@ -2802,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="G90" s="4">
-        <v>1005</v>
+        <v>21103</v>
       </c>
       <c r="H90" s="4">
         <v>40</v>
@@ -2827,7 +2855,7 @@
         <v>35</v>
       </c>
       <c r="G91" s="4">
-        <v>1005</v>
+        <v>21104</v>
       </c>
       <c r="H91" s="4">
         <v>50</v>
@@ -2852,7 +2880,7 @@
         <v>36</v>
       </c>
       <c r="G92" s="4">
-        <v>1005</v>
+        <v>21105</v>
       </c>
       <c r="H92" s="4">
         <v>60</v>
@@ -2877,7 +2905,7 @@
         <v>37</v>
       </c>
       <c r="G93" s="4">
-        <v>1005</v>
+        <v>21106</v>
       </c>
       <c r="H93" s="4">
         <v>70</v>
@@ -2902,7 +2930,7 @@
         <v>38</v>
       </c>
       <c r="G94" s="4">
-        <v>1005</v>
+        <v>21107</v>
       </c>
       <c r="H94" s="4">
         <v>80</v>
@@ -2927,7 +2955,7 @@
         <v>39</v>
       </c>
       <c r="G95" s="4">
-        <v>1005</v>
+        <v>21108</v>
       </c>
       <c r="H95" s="4">
         <v>90</v>
@@ -2952,10 +2980,10 @@
         <v>25</v>
       </c>
       <c r="G96" s="4">
-        <v>1005</v>
+        <v>21201</v>
       </c>
       <c r="H96" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
@@ -2977,7 +3005,7 @@
         <v>33</v>
       </c>
       <c r="G97" s="4">
-        <v>1005</v>
+        <v>21202</v>
       </c>
       <c r="H97" s="4">
         <v>30</v>
@@ -3002,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="G98" s="4">
-        <v>1005</v>
+        <v>21203</v>
       </c>
       <c r="H98" s="4">
         <v>40</v>
@@ -3027,7 +3055,7 @@
         <v>35</v>
       </c>
       <c r="G99" s="4">
-        <v>1005</v>
+        <v>21204</v>
       </c>
       <c r="H99" s="4">
         <v>50</v>
@@ -3052,7 +3080,7 @@
         <v>36</v>
       </c>
       <c r="G100" s="4">
-        <v>1005</v>
+        <v>21205</v>
       </c>
       <c r="H100" s="4">
         <v>60</v>
@@ -3077,7 +3105,7 @@
         <v>37</v>
       </c>
       <c r="G101" s="4">
-        <v>1005</v>
+        <v>21206</v>
       </c>
       <c r="H101" s="4">
         <v>70</v>
@@ -3102,7 +3130,7 @@
         <v>38</v>
       </c>
       <c r="G102" s="4">
-        <v>1005</v>
+        <v>21207</v>
       </c>
       <c r="H102" s="4">
         <v>80</v>
@@ -3127,7 +3155,7 @@
         <v>39</v>
       </c>
       <c r="G103" s="4">
-        <v>1005</v>
+        <v>21208</v>
       </c>
       <c r="H103" s="4">
         <v>90</v>
@@ -3152,10 +3180,10 @@
         <v>25</v>
       </c>
       <c r="G104" s="4">
-        <v>1005</v>
+        <v>21301</v>
       </c>
       <c r="H104" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
@@ -3177,7 +3205,7 @@
         <v>33</v>
       </c>
       <c r="G105" s="4">
-        <v>1005</v>
+        <v>21302</v>
       </c>
       <c r="H105" s="4">
         <v>30</v>
@@ -3202,7 +3230,7 @@
         <v>34</v>
       </c>
       <c r="G106" s="4">
-        <v>1005</v>
+        <v>21303</v>
       </c>
       <c r="H106" s="4">
         <v>40</v>
@@ -3227,7 +3255,7 @@
         <v>35</v>
       </c>
       <c r="G107" s="4">
-        <v>1005</v>
+        <v>21304</v>
       </c>
       <c r="H107" s="4">
         <v>50</v>
@@ -3252,7 +3280,7 @@
         <v>36</v>
       </c>
       <c r="G108" s="4">
-        <v>1005</v>
+        <v>21305</v>
       </c>
       <c r="H108" s="4">
         <v>60</v>
@@ -3277,7 +3305,7 @@
         <v>37</v>
       </c>
       <c r="G109" s="4">
-        <v>1005</v>
+        <v>21306</v>
       </c>
       <c r="H109" s="4">
         <v>70</v>
@@ -3302,7 +3330,7 @@
         <v>38</v>
       </c>
       <c r="G110" s="4">
-        <v>1005</v>
+        <v>21307</v>
       </c>
       <c r="H110" s="4">
         <v>80</v>
@@ -3327,7 +3355,7 @@
         <v>39</v>
       </c>
       <c r="G111" s="4">
-        <v>1005</v>
+        <v>21308</v>
       </c>
       <c r="H111" s="4">
         <v>90</v>
@@ -3352,10 +3380,10 @@
         <v>25</v>
       </c>
       <c r="G112" s="4">
-        <v>1005</v>
+        <v>21401</v>
       </c>
       <c r="H112" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
@@ -3377,7 +3405,7 @@
         <v>33</v>
       </c>
       <c r="G113" s="4">
-        <v>1005</v>
+        <v>21402</v>
       </c>
       <c r="H113" s="4">
         <v>30</v>
@@ -3402,7 +3430,7 @@
         <v>34</v>
       </c>
       <c r="G114" s="4">
-        <v>1005</v>
+        <v>21403</v>
       </c>
       <c r="H114" s="4">
         <v>40</v>
@@ -3427,7 +3455,7 @@
         <v>35</v>
       </c>
       <c r="G115" s="4">
-        <v>1005</v>
+        <v>21404</v>
       </c>
       <c r="H115" s="4">
         <v>50</v>
@@ -3452,7 +3480,7 @@
         <v>36</v>
       </c>
       <c r="G116" s="4">
-        <v>1005</v>
+        <v>21405</v>
       </c>
       <c r="H116" s="4">
         <v>60</v>
@@ -3477,7 +3505,7 @@
         <v>37</v>
       </c>
       <c r="G117" s="4">
-        <v>1005</v>
+        <v>21406</v>
       </c>
       <c r="H117" s="4">
         <v>70</v>
@@ -3502,7 +3530,7 @@
         <v>38</v>
       </c>
       <c r="G118" s="4">
-        <v>1005</v>
+        <v>21407</v>
       </c>
       <c r="H118" s="4">
         <v>80</v>
@@ -3527,7 +3555,7 @@
         <v>39</v>
       </c>
       <c r="G119" s="4">
-        <v>1005</v>
+        <v>21408</v>
       </c>
       <c r="H119" s="4">
         <v>90</v>
@@ -3552,10 +3580,10 @@
         <v>25</v>
       </c>
       <c r="G120" s="4">
-        <v>1005</v>
+        <v>21501</v>
       </c>
       <c r="H120" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
@@ -3577,7 +3605,7 @@
         <v>33</v>
       </c>
       <c r="G121" s="4">
-        <v>1005</v>
+        <v>21502</v>
       </c>
       <c r="H121" s="4">
         <v>30</v>
@@ -3602,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="G122" s="4">
-        <v>1005</v>
+        <v>21503</v>
       </c>
       <c r="H122" s="4">
         <v>40</v>
@@ -3627,7 +3655,7 @@
         <v>35</v>
       </c>
       <c r="G123" s="4">
-        <v>1005</v>
+        <v>21504</v>
       </c>
       <c r="H123" s="4">
         <v>50</v>
@@ -3652,7 +3680,7 @@
         <v>36</v>
       </c>
       <c r="G124" s="4">
-        <v>1005</v>
+        <v>21505</v>
       </c>
       <c r="H124" s="4">
         <v>60</v>
@@ -3677,7 +3705,7 @@
         <v>37</v>
       </c>
       <c r="G125" s="4">
-        <v>1005</v>
+        <v>21506</v>
       </c>
       <c r="H125" s="4">
         <v>70</v>
@@ -3702,7 +3730,7 @@
         <v>38</v>
       </c>
       <c r="G126" s="4">
-        <v>1005</v>
+        <v>21507</v>
       </c>
       <c r="H126" s="4">
         <v>80</v>
@@ -3727,7 +3755,7 @@
         <v>39</v>
       </c>
       <c r="G127" s="4">
-        <v>1005</v>
+        <v>21508</v>
       </c>
       <c r="H127" s="4">
         <v>90</v>
@@ -3751,10 +3779,10 @@
         <v>25</v>
       </c>
       <c r="G128" s="4">
-        <v>1005</v>
+        <v>21601</v>
       </c>
       <c r="H128" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
@@ -3775,7 +3803,7 @@
         <v>33</v>
       </c>
       <c r="G129" s="4">
-        <v>1005</v>
+        <v>21602</v>
       </c>
       <c r="H129" s="4">
         <v>30</v>
@@ -3799,7 +3827,7 @@
         <v>34</v>
       </c>
       <c r="G130" s="4">
-        <v>1005</v>
+        <v>21603</v>
       </c>
       <c r="H130" s="4">
         <v>40</v>
@@ -3823,7 +3851,7 @@
         <v>35</v>
       </c>
       <c r="G131" s="4">
-        <v>1005</v>
+        <v>21604</v>
       </c>
       <c r="H131" s="4">
         <v>50</v>
@@ -3847,7 +3875,7 @@
         <v>36</v>
       </c>
       <c r="G132" s="4">
-        <v>1005</v>
+        <v>21605</v>
       </c>
       <c r="H132" s="4">
         <v>60</v>
@@ -3871,7 +3899,7 @@
         <v>37</v>
       </c>
       <c r="G133" s="4">
-        <v>1005</v>
+        <v>21606</v>
       </c>
       <c r="H133" s="4">
         <v>70</v>
@@ -3895,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="G134" s="4">
-        <v>1005</v>
+        <v>21607</v>
       </c>
       <c r="H134" s="4">
         <v>80</v>
@@ -3919,7 +3947,7 @@
         <v>39</v>
       </c>
       <c r="G135" s="4">
-        <v>1005</v>
+        <v>21608</v>
       </c>
       <c r="H135" s="4">
         <v>90</v>
@@ -3944,10 +3972,10 @@
         <v>25</v>
       </c>
       <c r="G136" s="4">
-        <v>1005</v>
+        <v>21701</v>
       </c>
       <c r="H136" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
@@ -3969,7 +3997,7 @@
         <v>33</v>
       </c>
       <c r="G137" s="4">
-        <v>1005</v>
+        <v>21702</v>
       </c>
       <c r="H137" s="4">
         <v>30</v>
@@ -3994,7 +4022,7 @@
         <v>34</v>
       </c>
       <c r="G138" s="4">
-        <v>1005</v>
+        <v>21703</v>
       </c>
       <c r="H138" s="4">
         <v>40</v>
@@ -4019,7 +4047,7 @@
         <v>35</v>
       </c>
       <c r="G139" s="4">
-        <v>1005</v>
+        <v>21704</v>
       </c>
       <c r="H139" s="4">
         <v>50</v>
@@ -4044,7 +4072,7 @@
         <v>36</v>
       </c>
       <c r="G140" s="4">
-        <v>1005</v>
+        <v>21705</v>
       </c>
       <c r="H140" s="4">
         <v>60</v>
@@ -4069,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="G141" s="4">
-        <v>1005</v>
+        <v>21706</v>
       </c>
       <c r="H141" s="4">
         <v>70</v>
@@ -4094,7 +4122,7 @@
         <v>38</v>
       </c>
       <c r="G142" s="4">
-        <v>1005</v>
+        <v>21707</v>
       </c>
       <c r="H142" s="4">
         <v>80</v>
@@ -4119,7 +4147,7 @@
         <v>39</v>
       </c>
       <c r="G143" s="4">
-        <v>1005</v>
+        <v>21708</v>
       </c>
       <c r="H143" s="4">
         <v>90</v>
@@ -4144,10 +4172,10 @@
         <v>25</v>
       </c>
       <c r="G144" s="4">
-        <v>1005</v>
+        <v>21801</v>
       </c>
       <c r="H144" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.15">
@@ -4169,7 +4197,7 @@
         <v>33</v>
       </c>
       <c r="G145" s="4">
-        <v>1005</v>
+        <v>21802</v>
       </c>
       <c r="H145" s="4">
         <v>30</v>
@@ -4194,7 +4222,7 @@
         <v>34</v>
       </c>
       <c r="G146" s="4">
-        <v>1005</v>
+        <v>21803</v>
       </c>
       <c r="H146" s="4">
         <v>40</v>
@@ -4219,7 +4247,7 @@
         <v>35</v>
       </c>
       <c r="G147" s="4">
-        <v>1005</v>
+        <v>21804</v>
       </c>
       <c r="H147" s="4">
         <v>50</v>
@@ -4244,7 +4272,7 @@
         <v>36</v>
       </c>
       <c r="G148" s="4">
-        <v>1005</v>
+        <v>21805</v>
       </c>
       <c r="H148" s="4">
         <v>60</v>
@@ -4269,7 +4297,7 @@
         <v>37</v>
       </c>
       <c r="G149" s="4">
-        <v>1005</v>
+        <v>21806</v>
       </c>
       <c r="H149" s="4">
         <v>70</v>
@@ -4294,7 +4322,7 @@
         <v>38</v>
       </c>
       <c r="G150" s="4">
-        <v>1005</v>
+        <v>21807</v>
       </c>
       <c r="H150" s="4">
         <v>80</v>
@@ -4319,7 +4347,7 @@
         <v>39</v>
       </c>
       <c r="G151" s="4">
-        <v>1005</v>
+        <v>21808</v>
       </c>
       <c r="H151" s="4">
         <v>90</v>
@@ -4344,10 +4372,10 @@
         <v>25</v>
       </c>
       <c r="G152" s="4">
-        <v>1005</v>
+        <v>21901</v>
       </c>
       <c r="H152" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.15">
@@ -4369,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="G153" s="4">
-        <v>1005</v>
+        <v>21902</v>
       </c>
       <c r="H153" s="4">
         <v>30</v>
@@ -4394,7 +4422,7 @@
         <v>34</v>
       </c>
       <c r="G154" s="4">
-        <v>1005</v>
+        <v>21903</v>
       </c>
       <c r="H154" s="4">
         <v>40</v>
@@ -4419,7 +4447,7 @@
         <v>35</v>
       </c>
       <c r="G155" s="4">
-        <v>1005</v>
+        <v>21904</v>
       </c>
       <c r="H155" s="4">
         <v>50</v>
@@ -4444,7 +4472,7 @@
         <v>36</v>
       </c>
       <c r="G156" s="4">
-        <v>1005</v>
+        <v>21905</v>
       </c>
       <c r="H156" s="4">
         <v>60</v>
@@ -4469,7 +4497,7 @@
         <v>37</v>
       </c>
       <c r="G157" s="4">
-        <v>1005</v>
+        <v>21906</v>
       </c>
       <c r="H157" s="4">
         <v>70</v>
@@ -4494,7 +4522,7 @@
         <v>38</v>
       </c>
       <c r="G158" s="4">
-        <v>1005</v>
+        <v>21907</v>
       </c>
       <c r="H158" s="4">
         <v>80</v>
@@ -4519,7 +4547,7 @@
         <v>39</v>
       </c>
       <c r="G159" s="4">
-        <v>1005</v>
+        <v>21908</v>
       </c>
       <c r="H159" s="4">
         <v>90</v>
@@ -4544,10 +4572,10 @@
         <v>25</v>
       </c>
       <c r="G160" s="4">
-        <v>1005</v>
+        <v>22001</v>
       </c>
       <c r="H160" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.15">
@@ -4569,7 +4597,7 @@
         <v>33</v>
       </c>
       <c r="G161" s="4">
-        <v>1005</v>
+        <v>22002</v>
       </c>
       <c r="H161" s="4">
         <v>30</v>
@@ -4594,7 +4622,7 @@
         <v>34</v>
       </c>
       <c r="G162" s="4">
-        <v>1005</v>
+        <v>22003</v>
       </c>
       <c r="H162" s="4">
         <v>40</v>
@@ -4619,7 +4647,7 @@
         <v>35</v>
       </c>
       <c r="G163" s="4">
-        <v>1005</v>
+        <v>22004</v>
       </c>
       <c r="H163" s="4">
         <v>50</v>
@@ -4644,7 +4672,7 @@
         <v>36</v>
       </c>
       <c r="G164" s="4">
-        <v>1005</v>
+        <v>22005</v>
       </c>
       <c r="H164" s="4">
         <v>60</v>
@@ -4669,7 +4697,7 @@
         <v>37</v>
       </c>
       <c r="G165" s="4">
-        <v>1005</v>
+        <v>22006</v>
       </c>
       <c r="H165" s="4">
         <v>70</v>
@@ -4694,7 +4722,7 @@
         <v>38</v>
       </c>
       <c r="G166" s="4">
-        <v>1005</v>
+        <v>22007</v>
       </c>
       <c r="H166" s="4">
         <v>80</v>
@@ -4719,7 +4747,7 @@
         <v>39</v>
       </c>
       <c r="G167" s="4">
-        <v>1005</v>
+        <v>22008</v>
       </c>
       <c r="H167" s="4">
         <v>90</v>
@@ -4744,10 +4772,10 @@
         <v>25</v>
       </c>
       <c r="G168" s="4">
-        <v>1005</v>
+        <v>22101</v>
       </c>
       <c r="H168" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.15">
@@ -4769,7 +4797,7 @@
         <v>33</v>
       </c>
       <c r="G169" s="4">
-        <v>1005</v>
+        <v>22102</v>
       </c>
       <c r="H169" s="4">
         <v>30</v>
@@ -4794,7 +4822,7 @@
         <v>34</v>
       </c>
       <c r="G170" s="4">
-        <v>1005</v>
+        <v>22103</v>
       </c>
       <c r="H170" s="4">
         <v>40</v>
@@ -4819,7 +4847,7 @@
         <v>35</v>
       </c>
       <c r="G171" s="4">
-        <v>1005</v>
+        <v>22104</v>
       </c>
       <c r="H171" s="4">
         <v>50</v>
@@ -4844,7 +4872,7 @@
         <v>36</v>
       </c>
       <c r="G172" s="4">
-        <v>1005</v>
+        <v>22105</v>
       </c>
       <c r="H172" s="4">
         <v>60</v>
@@ -4869,7 +4897,7 @@
         <v>37</v>
       </c>
       <c r="G173" s="4">
-        <v>1005</v>
+        <v>22106</v>
       </c>
       <c r="H173" s="4">
         <v>70</v>
@@ -4894,7 +4922,7 @@
         <v>38</v>
       </c>
       <c r="G174" s="4">
-        <v>1005</v>
+        <v>22107</v>
       </c>
       <c r="H174" s="4">
         <v>80</v>
@@ -4919,7 +4947,7 @@
         <v>39</v>
       </c>
       <c r="G175" s="4">
-        <v>1005</v>
+        <v>22108</v>
       </c>
       <c r="H175" s="4">
         <v>90</v>
@@ -4944,10 +4972,10 @@
         <v>25</v>
       </c>
       <c r="G176" s="4">
-        <v>1005</v>
+        <v>22201</v>
       </c>
       <c r="H176" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.15">
@@ -4969,7 +4997,7 @@
         <v>33</v>
       </c>
       <c r="G177" s="4">
-        <v>1005</v>
+        <v>22202</v>
       </c>
       <c r="H177" s="4">
         <v>30</v>
@@ -4994,7 +5022,7 @@
         <v>34</v>
       </c>
       <c r="G178" s="4">
-        <v>1005</v>
+        <v>22203</v>
       </c>
       <c r="H178" s="4">
         <v>40</v>
@@ -5019,7 +5047,7 @@
         <v>35</v>
       </c>
       <c r="G179" s="4">
-        <v>1005</v>
+        <v>22204</v>
       </c>
       <c r="H179" s="4">
         <v>50</v>
@@ -5044,7 +5072,7 @@
         <v>36</v>
       </c>
       <c r="G180" s="4">
-        <v>1005</v>
+        <v>22205</v>
       </c>
       <c r="H180" s="4">
         <v>60</v>
@@ -5069,7 +5097,7 @@
         <v>37</v>
       </c>
       <c r="G181" s="4">
-        <v>1005</v>
+        <v>22206</v>
       </c>
       <c r="H181" s="4">
         <v>70</v>
@@ -5094,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="G182" s="4">
-        <v>1005</v>
+        <v>22207</v>
       </c>
       <c r="H182" s="4">
         <v>80</v>
@@ -5119,7 +5147,7 @@
         <v>39</v>
       </c>
       <c r="G183" s="4">
-        <v>1005</v>
+        <v>22208</v>
       </c>
       <c r="H183" s="4">
         <v>90</v>
@@ -5144,10 +5172,10 @@
         <v>25</v>
       </c>
       <c r="G184" s="4">
-        <v>1005</v>
+        <v>22301</v>
       </c>
       <c r="H184" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.15">
@@ -5169,7 +5197,7 @@
         <v>33</v>
       </c>
       <c r="G185" s="4">
-        <v>1005</v>
+        <v>22302</v>
       </c>
       <c r="H185" s="4">
         <v>30</v>
@@ -5194,7 +5222,7 @@
         <v>34</v>
       </c>
       <c r="G186" s="4">
-        <v>1005</v>
+        <v>22303</v>
       </c>
       <c r="H186" s="4">
         <v>40</v>
@@ -5219,7 +5247,7 @@
         <v>35</v>
       </c>
       <c r="G187" s="4">
-        <v>1005</v>
+        <v>22304</v>
       </c>
       <c r="H187" s="4">
         <v>50</v>
@@ -5244,7 +5272,7 @@
         <v>36</v>
       </c>
       <c r="G188" s="4">
-        <v>1005</v>
+        <v>22305</v>
       </c>
       <c r="H188" s="4">
         <v>60</v>
@@ -5269,7 +5297,7 @@
         <v>37</v>
       </c>
       <c r="G189" s="4">
-        <v>1005</v>
+        <v>22306</v>
       </c>
       <c r="H189" s="4">
         <v>70</v>
@@ -5294,7 +5322,7 @@
         <v>38</v>
       </c>
       <c r="G190" s="4">
-        <v>1005</v>
+        <v>22307</v>
       </c>
       <c r="H190" s="4">
         <v>80</v>
@@ -5319,7 +5347,7 @@
         <v>39</v>
       </c>
       <c r="G191" s="4">
-        <v>1005</v>
+        <v>22308</v>
       </c>
       <c r="H191" s="4">
         <v>90</v>
@@ -5344,10 +5372,10 @@
         <v>25</v>
       </c>
       <c r="G192" s="4">
-        <v>1005</v>
+        <v>22401</v>
       </c>
       <c r="H192" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
@@ -5369,7 +5397,7 @@
         <v>33</v>
       </c>
       <c r="G193" s="4">
-        <v>1005</v>
+        <v>22402</v>
       </c>
       <c r="H193" s="4">
         <v>30</v>
@@ -5394,7 +5422,7 @@
         <v>34</v>
       </c>
       <c r="G194" s="4">
-        <v>1005</v>
+        <v>22403</v>
       </c>
       <c r="H194" s="4">
         <v>40</v>
@@ -5419,7 +5447,7 @@
         <v>35</v>
       </c>
       <c r="G195" s="4">
-        <v>1005</v>
+        <v>22404</v>
       </c>
       <c r="H195" s="4">
         <v>50</v>
@@ -5444,7 +5472,7 @@
         <v>36</v>
       </c>
       <c r="G196" s="4">
-        <v>1005</v>
+        <v>22405</v>
       </c>
       <c r="H196" s="4">
         <v>60</v>
@@ -5469,7 +5497,7 @@
         <v>37</v>
       </c>
       <c r="G197" s="4">
-        <v>1005</v>
+        <v>22406</v>
       </c>
       <c r="H197" s="4">
         <v>70</v>
@@ -5494,7 +5522,7 @@
         <v>38</v>
       </c>
       <c r="G198" s="4">
-        <v>1005</v>
+        <v>22407</v>
       </c>
       <c r="H198" s="4">
         <v>80</v>
@@ -5519,7 +5547,7 @@
         <v>39</v>
       </c>
       <c r="G199" s="4">
-        <v>1005</v>
+        <v>22408</v>
       </c>
       <c r="H199" s="4">
         <v>90</v>
@@ -5544,10 +5572,10 @@
         <v>25</v>
       </c>
       <c r="G200" s="4">
-        <v>1005</v>
+        <v>22501</v>
       </c>
       <c r="H200" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
@@ -5569,7 +5597,7 @@
         <v>33</v>
       </c>
       <c r="G201" s="4">
-        <v>1005</v>
+        <v>22502</v>
       </c>
       <c r="H201" s="4">
         <v>30</v>
@@ -5594,7 +5622,7 @@
         <v>34</v>
       </c>
       <c r="G202" s="4">
-        <v>1005</v>
+        <v>22503</v>
       </c>
       <c r="H202" s="4">
         <v>40</v>
@@ -5619,7 +5647,7 @@
         <v>35</v>
       </c>
       <c r="G203" s="4">
-        <v>1005</v>
+        <v>22504</v>
       </c>
       <c r="H203" s="4">
         <v>50</v>
@@ -5644,7 +5672,7 @@
         <v>36</v>
       </c>
       <c r="G204" s="4">
-        <v>1005</v>
+        <v>22505</v>
       </c>
       <c r="H204" s="4">
         <v>60</v>
@@ -5669,7 +5697,7 @@
         <v>37</v>
       </c>
       <c r="G205" s="4">
-        <v>1005</v>
+        <v>22506</v>
       </c>
       <c r="H205" s="4">
         <v>70</v>
@@ -5694,7 +5722,7 @@
         <v>38</v>
       </c>
       <c r="G206" s="4">
-        <v>1005</v>
+        <v>22507</v>
       </c>
       <c r="H206" s="4">
         <v>80</v>
@@ -5719,7 +5747,7 @@
         <v>39</v>
       </c>
       <c r="G207" s="4">
-        <v>1005</v>
+        <v>22508</v>
       </c>
       <c r="H207" s="4">
         <v>90</v>
@@ -5744,10 +5772,10 @@
         <v>25</v>
       </c>
       <c r="G208" s="4">
-        <v>1005</v>
+        <v>22601</v>
       </c>
       <c r="H208" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.15">
@@ -5769,7 +5797,7 @@
         <v>33</v>
       </c>
       <c r="G209" s="4">
-        <v>1005</v>
+        <v>22602</v>
       </c>
       <c r="H209" s="4">
         <v>30</v>
@@ -5794,7 +5822,7 @@
         <v>34</v>
       </c>
       <c r="G210" s="4">
-        <v>1005</v>
+        <v>22603</v>
       </c>
       <c r="H210" s="4">
         <v>40</v>
@@ -5819,7 +5847,7 @@
         <v>35</v>
       </c>
       <c r="G211" s="4">
-        <v>1005</v>
+        <v>22604</v>
       </c>
       <c r="H211" s="4">
         <v>50</v>
@@ -5844,7 +5872,7 @@
         <v>36</v>
       </c>
       <c r="G212" s="4">
-        <v>1005</v>
+        <v>22605</v>
       </c>
       <c r="H212" s="4">
         <v>60</v>
@@ -5869,7 +5897,7 @@
         <v>37</v>
       </c>
       <c r="G213" s="4">
-        <v>1005</v>
+        <v>22606</v>
       </c>
       <c r="H213" s="4">
         <v>70</v>
@@ -5894,7 +5922,7 @@
         <v>38</v>
       </c>
       <c r="G214" s="4">
-        <v>1005</v>
+        <v>22607</v>
       </c>
       <c r="H214" s="4">
         <v>80</v>
@@ -5919,7 +5947,7 @@
         <v>39</v>
       </c>
       <c r="G215" s="4">
-        <v>1005</v>
+        <v>22608</v>
       </c>
       <c r="H215" s="4">
         <v>90</v>
@@ -5944,10 +5972,10 @@
         <v>25</v>
       </c>
       <c r="G216" s="4">
-        <v>1005</v>
+        <v>22701</v>
       </c>
       <c r="H216" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
@@ -5969,7 +5997,7 @@
         <v>33</v>
       </c>
       <c r="G217" s="4">
-        <v>1005</v>
+        <v>22702</v>
       </c>
       <c r="H217" s="4">
         <v>30</v>
@@ -5994,7 +6022,7 @@
         <v>34</v>
       </c>
       <c r="G218" s="4">
-        <v>1005</v>
+        <v>22703</v>
       </c>
       <c r="H218" s="4">
         <v>40</v>
@@ -6019,7 +6047,7 @@
         <v>35</v>
       </c>
       <c r="G219" s="4">
-        <v>1005</v>
+        <v>22704</v>
       </c>
       <c r="H219" s="4">
         <v>50</v>
@@ -6044,7 +6072,7 @@
         <v>36</v>
       </c>
       <c r="G220" s="4">
-        <v>1005</v>
+        <v>22705</v>
       </c>
       <c r="H220" s="4">
         <v>60</v>
@@ -6069,7 +6097,7 @@
         <v>37</v>
       </c>
       <c r="G221" s="4">
-        <v>1005</v>
+        <v>22706</v>
       </c>
       <c r="H221" s="4">
         <v>70</v>
@@ -6094,7 +6122,7 @@
         <v>38</v>
       </c>
       <c r="G222" s="4">
-        <v>1005</v>
+        <v>22707</v>
       </c>
       <c r="H222" s="4">
         <v>80</v>
@@ -6119,7 +6147,7 @@
         <v>39</v>
       </c>
       <c r="G223" s="4">
-        <v>1005</v>
+        <v>22708</v>
       </c>
       <c r="H223" s="4">
         <v>90</v>
@@ -6144,10 +6172,10 @@
         <v>25</v>
       </c>
       <c r="G224" s="4">
-        <v>1005</v>
+        <v>22801</v>
       </c>
       <c r="H224" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.15">
@@ -6169,7 +6197,7 @@
         <v>33</v>
       </c>
       <c r="G225" s="4">
-        <v>1005</v>
+        <v>22802</v>
       </c>
       <c r="H225" s="4">
         <v>30</v>
@@ -6194,7 +6222,7 @@
         <v>34</v>
       </c>
       <c r="G226" s="4">
-        <v>1005</v>
+        <v>22803</v>
       </c>
       <c r="H226" s="4">
         <v>40</v>
@@ -6219,7 +6247,7 @@
         <v>35</v>
       </c>
       <c r="G227" s="4">
-        <v>1005</v>
+        <v>22804</v>
       </c>
       <c r="H227" s="4">
         <v>50</v>
@@ -6244,7 +6272,7 @@
         <v>36</v>
       </c>
       <c r="G228" s="4">
-        <v>1005</v>
+        <v>22805</v>
       </c>
       <c r="H228" s="4">
         <v>60</v>
@@ -6269,7 +6297,7 @@
         <v>37</v>
       </c>
       <c r="G229" s="4">
-        <v>1005</v>
+        <v>22806</v>
       </c>
       <c r="H229" s="4">
         <v>70</v>
@@ -6294,7 +6322,7 @@
         <v>38</v>
       </c>
       <c r="G230" s="4">
-        <v>1005</v>
+        <v>22807</v>
       </c>
       <c r="H230" s="4">
         <v>80</v>
@@ -6319,7 +6347,7 @@
         <v>39</v>
       </c>
       <c r="G231" s="4">
-        <v>1005</v>
+        <v>22808</v>
       </c>
       <c r="H231" s="4">
         <v>90</v>
@@ -6344,10 +6372,10 @@
         <v>25</v>
       </c>
       <c r="G232" s="4">
-        <v>1005</v>
+        <v>22901</v>
       </c>
       <c r="H232" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.15">
@@ -6369,7 +6397,7 @@
         <v>33</v>
       </c>
       <c r="G233" s="4">
-        <v>1005</v>
+        <v>22902</v>
       </c>
       <c r="H233" s="4">
         <v>30</v>
@@ -6394,7 +6422,7 @@
         <v>34</v>
       </c>
       <c r="G234" s="4">
-        <v>1005</v>
+        <v>22903</v>
       </c>
       <c r="H234" s="4">
         <v>40</v>
@@ -6419,7 +6447,7 @@
         <v>35</v>
       </c>
       <c r="G235" s="4">
-        <v>1005</v>
+        <v>22904</v>
       </c>
       <c r="H235" s="4">
         <v>50</v>
@@ -6444,7 +6472,7 @@
         <v>36</v>
       </c>
       <c r="G236" s="4">
-        <v>1005</v>
+        <v>22905</v>
       </c>
       <c r="H236" s="4">
         <v>60</v>
@@ -6469,7 +6497,7 @@
         <v>37</v>
       </c>
       <c r="G237" s="4">
-        <v>1005</v>
+        <v>22906</v>
       </c>
       <c r="H237" s="4">
         <v>70</v>
@@ -6494,7 +6522,7 @@
         <v>38</v>
       </c>
       <c r="G238" s="4">
-        <v>1005</v>
+        <v>22907</v>
       </c>
       <c r="H238" s="4">
         <v>80</v>
@@ -6519,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="G239" s="4">
-        <v>1005</v>
+        <v>22908</v>
       </c>
       <c r="H239" s="4">
         <v>90</v>
@@ -6544,10 +6572,10 @@
         <v>25</v>
       </c>
       <c r="G240" s="4">
-        <v>1005</v>
+        <v>23001</v>
       </c>
       <c r="H240" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.15">
@@ -6569,7 +6597,7 @@
         <v>33</v>
       </c>
       <c r="G241" s="4">
-        <v>1005</v>
+        <v>23002</v>
       </c>
       <c r="H241" s="4">
         <v>30</v>
@@ -6594,7 +6622,7 @@
         <v>34</v>
       </c>
       <c r="G242" s="4">
-        <v>1005</v>
+        <v>23003</v>
       </c>
       <c r="H242" s="4">
         <v>40</v>
@@ -6619,7 +6647,7 @@
         <v>35</v>
       </c>
       <c r="G243" s="4">
-        <v>1005</v>
+        <v>23004</v>
       </c>
       <c r="H243" s="4">
         <v>50</v>
@@ -6644,7 +6672,7 @@
         <v>36</v>
       </c>
       <c r="G244" s="4">
-        <v>1005</v>
+        <v>23005</v>
       </c>
       <c r="H244" s="4">
         <v>60</v>
@@ -6669,7 +6697,7 @@
         <v>37</v>
       </c>
       <c r="G245" s="4">
-        <v>1005</v>
+        <v>23006</v>
       </c>
       <c r="H245" s="4">
         <v>70</v>
@@ -6694,7 +6722,7 @@
         <v>38</v>
       </c>
       <c r="G246" s="4">
-        <v>1005</v>
+        <v>23007</v>
       </c>
       <c r="H246" s="4">
         <v>80</v>
@@ -6719,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="G247" s="4">
-        <v>1005</v>
+        <v>23008</v>
       </c>
       <c r="H247" s="4">
         <v>90</v>
@@ -6744,10 +6772,10 @@
         <v>25</v>
       </c>
       <c r="G248" s="4">
-        <v>1005</v>
+        <v>23101</v>
       </c>
       <c r="H248" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.15">
@@ -6769,7 +6797,7 @@
         <v>33</v>
       </c>
       <c r="G249" s="4">
-        <v>1005</v>
+        <v>23102</v>
       </c>
       <c r="H249" s="4">
         <v>30</v>
@@ -6794,7 +6822,7 @@
         <v>34</v>
       </c>
       <c r="G250" s="4">
-        <v>1005</v>
+        <v>23103</v>
       </c>
       <c r="H250" s="4">
         <v>40</v>
@@ -6819,7 +6847,7 @@
         <v>35</v>
       </c>
       <c r="G251" s="4">
-        <v>1005</v>
+        <v>23104</v>
       </c>
       <c r="H251" s="4">
         <v>50</v>
@@ -6844,7 +6872,7 @@
         <v>36</v>
       </c>
       <c r="G252" s="4">
-        <v>1005</v>
+        <v>23105</v>
       </c>
       <c r="H252" s="4">
         <v>60</v>
@@ -6869,7 +6897,7 @@
         <v>37</v>
       </c>
       <c r="G253" s="4">
-        <v>1005</v>
+        <v>23106</v>
       </c>
       <c r="H253" s="4">
         <v>70</v>
@@ -6894,7 +6922,7 @@
         <v>38</v>
       </c>
       <c r="G254" s="4">
-        <v>1005</v>
+        <v>23107</v>
       </c>
       <c r="H254" s="4">
         <v>80</v>
@@ -6919,7 +6947,7 @@
         <v>39</v>
       </c>
       <c r="G255" s="4">
-        <v>1005</v>
+        <v>23108</v>
       </c>
       <c r="H255" s="4">
         <v>90</v>
@@ -6944,10 +6972,10 @@
         <v>25</v>
       </c>
       <c r="G256" s="4">
-        <v>1005</v>
+        <v>23201</v>
       </c>
       <c r="H256" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.15">
@@ -6969,7 +6997,7 @@
         <v>33</v>
       </c>
       <c r="G257" s="4">
-        <v>1005</v>
+        <v>23202</v>
       </c>
       <c r="H257" s="4">
         <v>30</v>
@@ -6994,7 +7022,7 @@
         <v>34</v>
       </c>
       <c r="G258" s="4">
-        <v>1005</v>
+        <v>23203</v>
       </c>
       <c r="H258" s="4">
         <v>40</v>
@@ -7019,7 +7047,7 @@
         <v>35</v>
       </c>
       <c r="G259" s="4">
-        <v>1005</v>
+        <v>23204</v>
       </c>
       <c r="H259" s="4">
         <v>50</v>
@@ -7044,7 +7072,7 @@
         <v>36</v>
       </c>
       <c r="G260" s="4">
-        <v>1005</v>
+        <v>23205</v>
       </c>
       <c r="H260" s="4">
         <v>60</v>
@@ -7069,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="G261" s="4">
-        <v>1005</v>
+        <v>23206</v>
       </c>
       <c r="H261" s="4">
         <v>70</v>
@@ -7094,7 +7122,7 @@
         <v>38</v>
       </c>
       <c r="G262" s="4">
-        <v>1005</v>
+        <v>23207</v>
       </c>
       <c r="H262" s="4">
         <v>80</v>
@@ -7119,7 +7147,7 @@
         <v>39</v>
       </c>
       <c r="G263" s="4">
-        <v>1005</v>
+        <v>23208</v>
       </c>
       <c r="H263" s="4">
         <v>90</v>
@@ -7144,10 +7172,10 @@
         <v>25</v>
       </c>
       <c r="G264" s="4">
-        <v>1005</v>
+        <v>23301</v>
       </c>
       <c r="H264" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.15">
@@ -7169,7 +7197,7 @@
         <v>33</v>
       </c>
       <c r="G265" s="4">
-        <v>1005</v>
+        <v>23302</v>
       </c>
       <c r="H265" s="4">
         <v>30</v>
@@ -7194,7 +7222,7 @@
         <v>34</v>
       </c>
       <c r="G266" s="4">
-        <v>1005</v>
+        <v>23303</v>
       </c>
       <c r="H266" s="4">
         <v>40</v>
@@ -7219,7 +7247,7 @@
         <v>35</v>
       </c>
       <c r="G267" s="4">
-        <v>1005</v>
+        <v>23304</v>
       </c>
       <c r="H267" s="4">
         <v>50</v>
@@ -7244,7 +7272,7 @@
         <v>36</v>
       </c>
       <c r="G268" s="4">
-        <v>1005</v>
+        <v>23305</v>
       </c>
       <c r="H268" s="4">
         <v>60</v>
@@ -7269,7 +7297,7 @@
         <v>37</v>
       </c>
       <c r="G269" s="4">
-        <v>1005</v>
+        <v>23306</v>
       </c>
       <c r="H269" s="4">
         <v>70</v>
@@ -7294,7 +7322,7 @@
         <v>38</v>
       </c>
       <c r="G270" s="4">
-        <v>1005</v>
+        <v>23307</v>
       </c>
       <c r="H270" s="4">
         <v>80</v>
@@ -7319,7 +7347,7 @@
         <v>39</v>
       </c>
       <c r="G271" s="4">
-        <v>1005</v>
+        <v>23308</v>
       </c>
       <c r="H271" s="4">
         <v>90</v>
@@ -7344,10 +7372,10 @@
         <v>25</v>
       </c>
       <c r="G272" s="4">
-        <v>1005</v>
+        <v>23401</v>
       </c>
       <c r="H272" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.15">
@@ -7369,7 +7397,7 @@
         <v>33</v>
       </c>
       <c r="G273" s="4">
-        <v>1005</v>
+        <v>23402</v>
       </c>
       <c r="H273" s="4">
         <v>30</v>
@@ -7394,7 +7422,7 @@
         <v>34</v>
       </c>
       <c r="G274" s="4">
-        <v>1005</v>
+        <v>23403</v>
       </c>
       <c r="H274" s="4">
         <v>40</v>
@@ -7419,7 +7447,7 @@
         <v>35</v>
       </c>
       <c r="G275" s="4">
-        <v>1005</v>
+        <v>23404</v>
       </c>
       <c r="H275" s="4">
         <v>50</v>
@@ -7444,7 +7472,7 @@
         <v>36</v>
       </c>
       <c r="G276" s="4">
-        <v>1005</v>
+        <v>23405</v>
       </c>
       <c r="H276" s="4">
         <v>60</v>
@@ -7469,7 +7497,7 @@
         <v>37</v>
       </c>
       <c r="G277" s="4">
-        <v>1005</v>
+        <v>23406</v>
       </c>
       <c r="H277" s="4">
         <v>70</v>
@@ -7494,7 +7522,7 @@
         <v>38</v>
       </c>
       <c r="G278" s="4">
-        <v>1005</v>
+        <v>23407</v>
       </c>
       <c r="H278" s="4">
         <v>80</v>
@@ -7519,7 +7547,7 @@
         <v>39</v>
       </c>
       <c r="G279" s="4">
-        <v>1005</v>
+        <v>23408</v>
       </c>
       <c r="H279" s="4">
         <v>90</v>
@@ -7544,10 +7572,10 @@
         <v>25</v>
       </c>
       <c r="G280" s="4">
-        <v>1005</v>
+        <v>23501</v>
       </c>
       <c r="H280" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.15">
@@ -7569,7 +7597,7 @@
         <v>33</v>
       </c>
       <c r="G281" s="4">
-        <v>1005</v>
+        <v>23502</v>
       </c>
       <c r="H281" s="4">
         <v>30</v>
@@ -7594,7 +7622,7 @@
         <v>34</v>
       </c>
       <c r="G282" s="4">
-        <v>1005</v>
+        <v>23503</v>
       </c>
       <c r="H282" s="4">
         <v>40</v>
@@ -7619,7 +7647,7 @@
         <v>35</v>
       </c>
       <c r="G283" s="4">
-        <v>1005</v>
+        <v>23504</v>
       </c>
       <c r="H283" s="4">
         <v>50</v>
@@ -7644,7 +7672,7 @@
         <v>36</v>
       </c>
       <c r="G284" s="4">
-        <v>1005</v>
+        <v>23505</v>
       </c>
       <c r="H284" s="4">
         <v>60</v>
@@ -7669,7 +7697,7 @@
         <v>37</v>
       </c>
       <c r="G285" s="4">
-        <v>1005</v>
+        <v>23506</v>
       </c>
       <c r="H285" s="4">
         <v>70</v>
@@ -7694,7 +7722,7 @@
         <v>38</v>
       </c>
       <c r="G286" s="4">
-        <v>1005</v>
+        <v>23507</v>
       </c>
       <c r="H286" s="4">
         <v>80</v>
@@ -7719,7 +7747,7 @@
         <v>39</v>
       </c>
       <c r="G287" s="4">
-        <v>1005</v>
+        <v>23508</v>
       </c>
       <c r="H287" s="4">
         <v>90</v>
@@ -7744,10 +7772,10 @@
         <v>25</v>
       </c>
       <c r="G288" s="4">
-        <v>1005</v>
+        <v>23601</v>
       </c>
       <c r="H288" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.15">
@@ -7769,7 +7797,7 @@
         <v>33</v>
       </c>
       <c r="G289" s="4">
-        <v>1005</v>
+        <v>23602</v>
       </c>
       <c r="H289" s="4">
         <v>30</v>
@@ -7794,7 +7822,7 @@
         <v>34</v>
       </c>
       <c r="G290" s="4">
-        <v>1005</v>
+        <v>23603</v>
       </c>
       <c r="H290" s="4">
         <v>40</v>
@@ -7819,7 +7847,7 @@
         <v>35</v>
       </c>
       <c r="G291" s="4">
-        <v>1005</v>
+        <v>23604</v>
       </c>
       <c r="H291" s="4">
         <v>50</v>
@@ -7844,7 +7872,7 @@
         <v>36</v>
       </c>
       <c r="G292" s="4">
-        <v>1005</v>
+        <v>23605</v>
       </c>
       <c r="H292" s="4">
         <v>60</v>
@@ -7869,7 +7897,7 @@
         <v>37</v>
       </c>
       <c r="G293" s="4">
-        <v>1005</v>
+        <v>23606</v>
       </c>
       <c r="H293" s="4">
         <v>70</v>
@@ -7894,7 +7922,7 @@
         <v>38</v>
       </c>
       <c r="G294" s="4">
-        <v>1005</v>
+        <v>23607</v>
       </c>
       <c r="H294" s="4">
         <v>80</v>
@@ -7919,7 +7947,7 @@
         <v>39</v>
       </c>
       <c r="G295" s="4">
-        <v>1005</v>
+        <v>23608</v>
       </c>
       <c r="H295" s="4">
         <v>90</v>
@@ -7933,7 +7961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7947,7 +7975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
